--- a/PLDI-2012/Perf Eval with Graphs.xlsx
+++ b/PLDI-2012/Perf Eval with Graphs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="20835" windowHeight="9750" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="450" windowWidth="20835" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -273,64 +273,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -342,64 +342,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>1.5851024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40236110000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.3033100000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61482700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86173929999999999</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2599052</c:v>
+                  <c:v>0.42470229999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23226830000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.61482700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.4719429</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5851024</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.58244070000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2599052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83217370000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7350797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7715232999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7130071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86173929999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.6254919999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>1.7170174</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7350797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7130071</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>1.3591707</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7244442</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83217370000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.58244070000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.42470229999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>8.1288364000000009</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.40236110000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>9.3063283999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7715232999999999</c:v>
+                  <c:v>1.7244442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,64 +426,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -495,64 +495,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>5.3923961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78733520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.27283429999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2019389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1540231000000001</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2781909000000002</c:v>
+                  <c:v>1.1255561000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6875301</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.2019389</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.3974888000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3923961</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>4.1442610999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2781909000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9503952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9855185999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.270297899999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.9443918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1540231000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>34.006214200000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>61.761491499999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.9855185999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.9443918</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>151.31266009999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>169.21509330000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9503952</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.1442610999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1255561000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>352.76973859999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.78733520000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1294.3486822</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.270297899999999</c:v>
+                  <c:v>169.21509330000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,64 +579,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -732,64 +732,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -801,64 +801,64 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>2.65E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4600000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.5899999999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8900000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3099999999999998E-5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9499999999999999E-5</c:v>
+                  <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.8900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.3099999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1300000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.01E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.79E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3099999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>6.9200000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>9.7499999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.01E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8500000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>8.1299999999999997E-5</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>9.4921999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1300000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.9499999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="17" formatCode="General">
                   <c:v>1.8000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4600000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
                   <c:v>2.318E-4</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.79E-5</c:v>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>9.4921999999999992E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,64 +885,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -951,67 +951,67 @@
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>1.7979700000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.2762700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.34627E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>2.2034000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.51258E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.5140200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.2648299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.3957900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.02095E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.5352299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.1999999999999999E-6</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.34627E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.51258E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14" formatCode="General">
                   <c:v>2.70653E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15" formatCode="General">
                   <c:v>4.8595800000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3957900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5352299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16" formatCode="General">
                   <c:v>4.3129000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17" formatCode="General">
+                  <c:v>7.3567400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
                   <c:v>0.56847130000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2648299999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5140200000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2762700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.3567400000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.1999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.1999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.02095E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,11 +1027,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="152983424"/>
-        <c:axId val="152984960"/>
+        <c:axId val="141278592"/>
+        <c:axId val="141288960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152983424"/>
+        <c:axId val="141278592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,13 +1053,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152984960"/>
+        <c:crossAx val="141288960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1067,7 +1066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152984960"/>
+        <c:axId val="141288960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,21 +1089,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152983424"/>
+        <c:crossAx val="141278592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1156,64 +1153,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1225,64 +1222,64 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>2.65E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4600000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.5899999999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8900000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3099999999999998E-5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9499999999999999E-5</c:v>
+                  <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.8900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.3099999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1300000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.01E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.79E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3099999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>6.9200000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>9.7499999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.01E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8500000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>8.1299999999999997E-5</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>9.4921999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1300000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.9499999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="17" formatCode="General">
                   <c:v>1.8000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4600000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
                   <c:v>2.318E-4</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.79E-5</c:v>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>9.4921999999999992E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,64 +1306,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1375,67 +1372,67 @@
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>1.7979700000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.2762700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.34627E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>2.2034000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.51258E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.5140200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.2648299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.3957900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.02095E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.5352299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.1999999999999999E-6</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.34627E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.51258E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14" formatCode="General">
                   <c:v>2.70653E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15" formatCode="General">
                   <c:v>4.8595800000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3957900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5352299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16" formatCode="General">
                   <c:v>4.3129000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17" formatCode="General">
+                  <c:v>7.3567400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
                   <c:v>0.56847130000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2648299999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5140200000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2762700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.3567400000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.1999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.1999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.02095E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,64 +1459,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1615,64 +1612,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1684,64 +1681,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>1.5851024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40236110000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.3033100000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61482700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86173929999999999</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2599052</c:v>
+                  <c:v>0.42470229999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23226830000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.61482700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.4719429</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5851024</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.58244070000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2599052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83217370000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7350797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7715232999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7130071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86173929999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.6254919999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>1.7170174</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7350797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7130071</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>1.3591707</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7244442</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83217370000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.58244070000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.42470229999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>8.1288364000000009</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.40236110000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>9.3063283999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7715232999999999</c:v>
+                  <c:v>1.7244442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,64 +1765,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1837,64 +1834,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>5.3923961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78733520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.27283429999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2019389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1540231000000001</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2781909000000002</c:v>
+                  <c:v>1.1255561000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6875301</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.2019389</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.3974888000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3923961</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>4.1442610999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2781909000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9503952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9855185999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.270297899999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.9443918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1540231000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>34.006214200000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>61.761491499999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.9855185999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.9443918</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>151.31266009999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>169.21509330000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9503952</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.1442610999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1255561000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>352.76973859999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.78733520000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1294.3486822</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.270297899999999</c:v>
+                  <c:v>169.21509330000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1910,11 +1907,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="74382336"/>
-        <c:axId val="74392704"/>
+        <c:axId val="141014144"/>
+        <c:axId val="141016064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74382336"/>
+        <c:axId val="141014144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,7 +1939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74392704"/>
+        <c:crossAx val="141016064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1950,7 +1947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74392704"/>
+        <c:axId val="141016064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1981,7 +1978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74382336"/>
+        <c:crossAx val="141014144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2045,64 +2042,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2114,64 +2111,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>1.5851024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40236110000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.3033100000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61482700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86173929999999999</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2599052</c:v>
+                  <c:v>0.42470229999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23226830000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.61482700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.4719429</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5851024</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.58244070000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2599052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83217370000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7350797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7715232999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7130071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86173929999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.6254919999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>1.7170174</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7350797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7130071</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>1.3591707</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7244442</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83217370000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.58244070000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.42470229999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>8.1288364000000009</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.40236110000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>9.3063283999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7715232999999999</c:v>
+                  <c:v>1.7244442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,64 +2195,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2267,64 +2264,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>5.3923961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78733520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.27283429999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2019389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1540231000000001</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2781909000000002</c:v>
+                  <c:v>1.1255561000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6875301</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.2019389</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.3974888000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3923961</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>4.1442610999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2781909000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9503952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9855185999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.270297899999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.9443918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1540231000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>34.006214200000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>61.761491499999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.9855185999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.9443918</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>151.31266009999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>169.21509330000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9503952</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.1442610999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1255561000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>352.76973859999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.78733520000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1294.3486822</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.270297899999999</c:v>
+                  <c:v>169.21509330000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,64 +2348,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2504,64 +2501,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2573,64 +2570,64 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>2.65E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4600000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.5899999999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8900000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3099999999999998E-5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9499999999999999E-5</c:v>
+                  <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.8900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.3099999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1300000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.01E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.79E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3099999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>6.9200000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>9.7499999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.01E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8500000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>8.1299999999999997E-5</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>9.4921999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1300000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.9499999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="17" formatCode="General">
                   <c:v>1.8000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4600000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
                   <c:v>2.318E-4</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.79E-5</c:v>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>9.4921999999999992E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,64 +2654,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>invforce.xls</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>grades.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2723,67 +2720,67 @@
             <c:numRef>
               <c:f>Sheet1!$I$2:$I$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>1.7979700000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.2762700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.34627E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>2.2034000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.51258E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.5140200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.2648299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.3957900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.02095E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.5352299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.1999999999999999E-6</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.34627E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.51258E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14" formatCode="General">
                   <c:v>2.70653E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15" formatCode="General">
                   <c:v>4.8595800000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3957900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5352299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16" formatCode="General">
                   <c:v>4.3129000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17" formatCode="General">
+                  <c:v>7.3567400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
                   <c:v>0.56847130000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2648299999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5140200000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2762700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.3567400000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.1999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.1999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.02095E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,11 +2796,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="74729728"/>
-        <c:axId val="74346496"/>
+        <c:axId val="47360256"/>
+        <c:axId val="47362432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74729728"/>
+        <c:axId val="47360256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,7 +2828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74346496"/>
+        <c:crossAx val="47362432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2839,7 +2836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74346496"/>
+        <c:axId val="47362432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +2866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74729728"/>
+        <c:crossAx val="47360256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2933,61 +2930,61 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>intresults.xls</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2999,61 +2996,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>1.5851024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40236110000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.3033100000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61482700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86173929999999999</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2599052</c:v>
+                  <c:v>0.42470229999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23226830000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.61482700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.4719429</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5851024</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.58244070000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2599052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83217370000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7350797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7715232999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7130071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86173929999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.6254919999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>1.7170174</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7350797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7130071</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>1.3591707</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>8.1288364000000009</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.7244442</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83217370000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.58244070000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.42470229999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.1288364000000009</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.40236110000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7715232999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3080,61 +3077,61 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>intresults.xls</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3146,61 +3143,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>5.3923961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78733520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.27283429999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2019389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1540231000000001</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2781909000000002</c:v>
+                  <c:v>1.1255561000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6875301</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.2019389</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.3974888000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3923961</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>4.1442610999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2781909000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9503952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9855185999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.270297899999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.9443918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1540231000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>34.006214200000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>61.761491499999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.9855185999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.9443918</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>151.31266009999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>352.76973859999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>169.21509330000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9503952</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.1442610999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1255561000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>352.76973859999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.78733520000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.270297899999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,61 +3224,61 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>intresults.xls</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3374,61 +3371,61 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>intresults.xls</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3440,61 +3437,61 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>2.65E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4600000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.5899999999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8900000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3099999999999998E-5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9499999999999999E-5</c:v>
+                  <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.8900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.3099999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1300000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.01E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.79E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3099999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>6.9200000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>9.7499999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.01E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8500000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>8.1299999999999997E-5</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="17" formatCode="General">
+                  <c:v>1.8000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
                   <c:v>9.4921999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1300000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.9499999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>1.8000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.4600000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.79E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3521,61 +3518,61 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>intresults.xls</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>intresults.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Inventory_Control.xls</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3584,64 +3581,64 @@
             <c:numRef>
               <c:f>Sheet1!$I$28:$I$46</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>1.7979700000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.2762700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.34627E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>2.2034000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.51258E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.5140200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.2648299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.3957900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.02095E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.5352299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.1999999999999999E-6</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.34627E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.51258E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14" formatCode="General">
                   <c:v>2.70653E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15" formatCode="General">
                   <c:v>4.8595800000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3957900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5352299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16" formatCode="General">
                   <c:v>4.3129000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17" formatCode="General">
+                  <c:v>7.3567400000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
                   <c:v>0.56847130000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2648299999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5140200000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2762700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.3567400000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.1999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.02095E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3657,11 +3654,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="143185024"/>
-        <c:axId val="143186944"/>
+        <c:axId val="141578240"/>
+        <c:axId val="141580160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143185024"/>
+        <c:axId val="141578240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3689,7 +3686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143186944"/>
+        <c:crossAx val="141580160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3697,7 +3694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143186944"/>
+        <c:axId val="141580160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3727,7 +3724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143185024"/>
+        <c:crossAx val="141578240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3791,58 +3788,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Inventory_Control.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3854,58 +3851,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>1.5851024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40236110000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.3033100000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61482700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86173929999999999</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2599052</c:v>
+                  <c:v>0.42470229999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23226830000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.61482700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.4719429</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5851024</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.58244070000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2599052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83217370000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7350797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7715232999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7130071</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86173929999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.6254919999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>1.7170174</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.7350797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.7130071</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>1.3591707</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>1.7244442</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83217370000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.58244070000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.42470229999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.40236110000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7715232999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3932,58 +3929,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Inventory_Control.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3995,58 +3992,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>5.3923961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78733520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.27283429999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2019389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1540231000000001</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2781909000000002</c:v>
+                  <c:v>1.1255561000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6875301</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.2019389</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.3974888000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3923961</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>4.1442610999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2781909000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9503952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9855185999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.270297899999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.9443918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1540231000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>34.006214200000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>61.761491499999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.9855185999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.9443918</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>151.31266009999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>169.21509330000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9503952</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.1442610999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1255561000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.78733520000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.270297899999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4073,58 +4070,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Inventory_Control.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4214,58 +4211,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Inventory_Control.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4277,58 +4274,58 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>2.65E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4600000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.5899999999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8900000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3099999999999998E-5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9499999999999999E-5</c:v>
+                  <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.8900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.3099999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1300000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.01E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.79E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3099999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>6.9200000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>9.7499999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.01E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.8500000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>8.1299999999999997E-5</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="17" formatCode="General">
                   <c:v>9.4921999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1300000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.9499999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.4600000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.79E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4355,58 +4352,58 @@
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>grades2002.xls</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104r.xls</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grades-6_excerpt.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Example_3.xls</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>lmc_financial.xls</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>expenses_ans.xls</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30day.xls</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>E04_AppE_Census_Database_50.xls</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>econ424-fall2003-publ#A8A23.xls</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Example_3.xls</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>expenses_ans.xls</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>gpa_calculator.xls</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>grades.xls</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Grades-6_excerpt.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>grades2002.xls</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HMWK112403.xls</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Inventory_Control.xls</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4415,61 +4412,61 @@
             <c:numRef>
               <c:f>Sheet1!$I$52:$I$69</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>1.7979700000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.2762700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.34627E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>2.2034000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.51258E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.5140200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.2648299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.3957900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.02095E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.5352299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.1999999999999999E-6</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.34627E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.51258E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14" formatCode="General">
                   <c:v>2.70653E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15" formatCode="General">
                   <c:v>4.8595800000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3957900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.5352299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16" formatCode="General">
                   <c:v>4.3129000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17" formatCode="General">
                   <c:v>0.56847130000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2648299999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5140200000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.2762700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.1999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.02095E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4485,11 +4482,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="147027840"/>
-        <c:axId val="147054592"/>
+        <c:axId val="141621888"/>
+        <c:axId val="141173504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147027840"/>
+        <c:axId val="141621888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,7 +4514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147054592"/>
+        <c:crossAx val="141173504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4525,7 +4522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147054592"/>
+        <c:axId val="141173504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,7 +4552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147027840"/>
+        <c:crossAx val="141621888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4619,46 +4616,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>Example_3.xls</c:v>
+                  <c:v>grades2002.xls</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>expenses_ans.xls</c:v>
+                  <c:v>104r.xls</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Grades-6_excerpt.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>grades2002.xls</c:v>
+                  <c:v>Example_3.xls</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HMWK112403.xls</c:v>
+                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Inventory_Control.xls</c:v>
+                  <c:v>expenses_ans.xls</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>30day.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4670,46 +4667,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1.5851024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40236110000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.3033100000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61482700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86173929999999999</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2599052</c:v>
+                  <c:v>0.42470229999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23226830000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.61482700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.4719429</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5851024</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7350797</c:v>
+                  <c:v>0.58244070000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7130071</c:v>
+                  <c:v>0.2599052</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.83217370000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58244070000000003</c:v>
+                  <c:v>0.7350797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42470229999999998</c:v>
+                  <c:v>1.7715232999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40236110000000003</c:v>
+                  <c:v>0.7130071</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7715232999999999</c:v>
+                  <c:v>0.86173929999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4736,46 +4733,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>Example_3.xls</c:v>
+                  <c:v>grades2002.xls</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>expenses_ans.xls</c:v>
+                  <c:v>104r.xls</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Grades-6_excerpt.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>grades2002.xls</c:v>
+                  <c:v>Example_3.xls</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HMWK112403.xls</c:v>
+                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Inventory_Control.xls</c:v>
+                  <c:v>expenses_ans.xls</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>30day.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4787,46 +4784,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>5.3923961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78733520000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.27283429999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2019389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1540231000000001</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2781909000000002</c:v>
+                  <c:v>1.1255561000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6875301</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.2019389</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.3974888000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3923961</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9855185999999998</c:v>
+                  <c:v>4.1442610999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.9443918</c:v>
+                  <c:v>8.2781909000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.9503952</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1442610999999996</c:v>
+                  <c:v>6.9855185999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1255561000000001</c:v>
+                  <c:v>11.270297899999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78733520000000001</c:v>
+                  <c:v>12.9443918</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.270297899999999</c:v>
+                  <c:v>1.1540231000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4853,46 +4850,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>Example_3.xls</c:v>
+                  <c:v>grades2002.xls</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>expenses_ans.xls</c:v>
+                  <c:v>104r.xls</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Grades-6_excerpt.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>grades2002.xls</c:v>
+                  <c:v>Example_3.xls</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HMWK112403.xls</c:v>
+                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Inventory_Control.xls</c:v>
+                  <c:v>expenses_ans.xls</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>30day.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4970,46 +4967,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>Example_3.xls</c:v>
+                  <c:v>grades2002.xls</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>expenses_ans.xls</c:v>
+                  <c:v>104r.xls</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Grades-6_excerpt.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>grades2002.xls</c:v>
+                  <c:v>Example_3.xls</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HMWK112403.xls</c:v>
+                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Inventory_Control.xls</c:v>
+                  <c:v>expenses_ans.xls</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>30day.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5021,46 +5018,46 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>2.65E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4600000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.5899999999999999E-5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8900000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3099999999999998E-5</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9499999999999999E-5</c:v>
+                  <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.65E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2.8900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.3099999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.65E-5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.01E-5</c:v>
+                  <c:v>2.9499999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8500000000000001E-5</c:v>
+                  <c:v>2.9499999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.1300000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9499999999999999E-5</c:v>
+                  <c:v>3.01E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.65E-5</c:v>
+                  <c:v>3.79E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4600000000000002E-5</c:v>
+                  <c:v>3.8500000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.79E-5</c:v>
+                  <c:v>3.3099999999999998E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5087,46 +5084,46 @@
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>DB2003_X_Countries.xls</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inventory_Control.xls</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Monthly_Budget_Trunc.xlsx</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>timecard.xlsx</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30day.xls</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>104r.xls</c:v>
+                  <c:v>HMWK112403.xls</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2002fairreport.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>timecard.xlsx</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9620040303160820.xls</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>DB2003_X_Countries.xls</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>Example_3.xls</c:v>
+                  <c:v>grades2002.xls</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>expenses_ans.xls</c:v>
+                  <c:v>104r.xls</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Grades-6_excerpt.xlsx</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>grades2002.xls</c:v>
+                  <c:v>Example_3.xls</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HMWK112403.xls</c:v>
+                  <c:v>lmc_financial.xls</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Inventory_Control.xls</c:v>
+                  <c:v>expenses_ans.xls</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>lmc_financial.xls</c:v>
+                  <c:v>30day.xls</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5135,49 +5132,49 @@
             <c:numRef>
               <c:f>Sheet1!$I$75:$I$88</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>1.7979700000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.2762700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2.34627E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
                   <c:v>2.2034000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.51258E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.5140200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.2648299999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.3957900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>3.02095E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>1.5352299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.1999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.34627E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.51258E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3957900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5352299999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2648299999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5140200000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.2762700000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.1999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.02095E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5193,11 +5190,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="155187840"/>
-        <c:axId val="155206400"/>
+        <c:axId val="141214080"/>
+        <c:axId val="141216000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155187840"/>
+        <c:axId val="141214080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5225,7 +5222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155206400"/>
+        <c:crossAx val="141216000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5233,7 +5230,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155206400"/>
+        <c:axId val="141216000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5263,7 +5260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155187840"/>
+        <c:crossAx val="141214080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5326,8 +5323,8 @@
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="13465567" y="514349"/>
-    <xdr:ext cx="4795801" cy="3478569"/>
+    <xdr:pos x="13465566" y="514348"/>
+    <xdr:ext cx="8480033" cy="4610101"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
@@ -5727,8 +5724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5764,118 +5761,118 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.38829520000000001</v>
+        <v>10.6833799</v>
       </c>
       <c r="E2">
-        <v>7.3033100000000004E-2</v>
+        <v>1.5851024</v>
       </c>
       <c r="F2">
-        <v>0.27283429999999997</v>
+        <v>5.3923961</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1">
-        <v>2.5899999999999999E-5</v>
-      </c>
-      <c r="I2">
-        <v>1.7979700000000001E-2</v>
+        <v>2.65E-5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.7999999999999999E-6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.0062351999999999</v>
+        <v>1.9149981</v>
       </c>
       <c r="E3">
-        <v>0.61482700000000001</v>
+        <v>0.40236110000000003</v>
       </c>
       <c r="F3">
-        <v>1.2019389</v>
+        <v>0.78733520000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1">
-        <v>2.8900000000000001E-5</v>
-      </c>
-      <c r="I3">
-        <v>2.2034000000000002E-2</v>
+        <v>2.4600000000000002E-5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.1999999999999999E-6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>421</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>2.1447451000000002</v>
+        <v>0.38829520000000001</v>
       </c>
       <c r="E4">
-        <v>0.86173929999999999</v>
+        <v>7.3033100000000004E-2</v>
       </c>
       <c r="F4">
-        <v>1.1540231000000001</v>
+        <v>0.27283429999999997</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1">
-        <v>3.3099999999999998E-5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.1999999999999999E-6</v>
+        <v>2.5899999999999999E-5</v>
+      </c>
+      <c r="I4">
+        <v>1.7979700000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>9.3714099999999991</v>
+        <v>1.9292529</v>
       </c>
       <c r="E5">
-        <v>0.2599052</v>
+        <v>0.42470229999999998</v>
       </c>
       <c r="F5">
-        <v>8.2781909000000002</v>
+        <v>1.1255561000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1">
-        <v>2.9499999999999999E-5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.7999999999999999E-6</v>
+        <v>2.65E-5</v>
+      </c>
+      <c r="I5">
+        <v>4.2762700000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5909,379 +5906,379 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>3.3153115</v>
+        <v>2.0062351999999999</v>
       </c>
       <c r="E7">
-        <v>0.4719429</v>
+        <v>0.61482700000000001</v>
       </c>
       <c r="F7">
-        <v>2.3974888000000001</v>
+        <v>1.2019389</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1">
-        <v>3.3099999999999998E-5</v>
+        <v>2.8900000000000001E-5</v>
       </c>
       <c r="I7">
-        <v>2.51258E-2</v>
+        <v>2.2034000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D8">
-        <v>10.6833799</v>
+        <v>3.3153115</v>
       </c>
       <c r="E8">
-        <v>1.5851024</v>
+        <v>0.4719429</v>
       </c>
       <c r="F8">
-        <v>5.3923961</v>
+        <v>2.3974888000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1">
-        <v>2.65E-5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.7999999999999999E-6</v>
+        <v>3.3099999999999998E-5</v>
+      </c>
+      <c r="I8">
+        <v>2.51258E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>2100</v>
+        <v>143</v>
       </c>
       <c r="D9">
-        <v>36.891022700000001</v>
+        <v>4.9748481</v>
       </c>
       <c r="E9">
-        <v>1.6254919999999999</v>
+        <v>0.58244070000000003</v>
       </c>
       <c r="F9">
-        <v>34.006214200000002</v>
+        <v>4.1442610999999996</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1">
-        <v>6.9200000000000002E-5</v>
+        <v>2.9499999999999999E-5</v>
       </c>
       <c r="I9">
-        <v>2.70653E-2</v>
+        <v>3.5140200000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>2192</v>
+        <v>148</v>
       </c>
       <c r="D10">
-        <v>64.576937000000001</v>
+        <v>9.3714099999999991</v>
       </c>
       <c r="E10">
-        <v>1.7170174</v>
+        <v>0.2599052</v>
       </c>
       <c r="F10">
-        <v>61.761491499999998</v>
+        <v>8.2781909000000002</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1">
-        <v>9.7499999999999998E-5</v>
-      </c>
-      <c r="I10">
-        <v>4.8595800000000001E-2</v>
+        <v>2.9499999999999999E-5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.7999999999999999E-6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C11">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D11">
-        <v>7.8702369000000001</v>
+        <v>4.9210491999999997</v>
       </c>
       <c r="E11">
-        <v>0.7350797</v>
+        <v>0.83217370000000002</v>
       </c>
       <c r="F11">
-        <v>6.9855185999999998</v>
+        <v>3.9503952</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1">
-        <v>3.01E-5</v>
+        <v>3.1300000000000002E-5</v>
       </c>
       <c r="I11">
-        <v>1.3957900000000001E-2</v>
+        <v>3.2648299999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C12">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="D12">
-        <v>13.733514599999999</v>
+        <v>7.8702369000000001</v>
       </c>
       <c r="E12">
-        <v>0.7130071</v>
+        <v>0.7350797</v>
       </c>
       <c r="F12">
-        <v>12.9443918</v>
+        <v>6.9855185999999998</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="1">
-        <v>3.8500000000000001E-5</v>
+        <v>3.01E-5</v>
       </c>
       <c r="I12">
-        <v>1.5352299999999999E-2</v>
+        <v>1.3957900000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C13">
-        <v>2460</v>
+        <v>367</v>
       </c>
       <c r="D13">
-        <v>152.8382915</v>
+        <v>15.6164494</v>
       </c>
       <c r="E13">
-        <v>1.3591707</v>
+        <v>1.7715232999999999</v>
       </c>
       <c r="F13">
-        <v>151.31266009999999</v>
+        <v>11.270297899999999</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1">
-        <v>8.1299999999999997E-5</v>
+        <v>3.79E-5</v>
       </c>
       <c r="I13">
-        <v>4.3129000000000001E-2</v>
+        <v>3.02095E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>483896</v>
+        <v>396</v>
       </c>
       <c r="D14">
-        <v>171.93987279999999</v>
+        <v>13.733514599999999</v>
       </c>
       <c r="E14">
-        <v>1.7244442</v>
+        <v>0.7130071</v>
       </c>
       <c r="F14">
-        <v>169.21509330000001</v>
+        <v>12.9443918</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14">
-        <v>9.4921999999999992E-3</v>
+        <v>30</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.8500000000000001E-5</v>
       </c>
       <c r="I14">
-        <v>0.56847130000000001</v>
+        <v>1.5352299999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C15">
-        <v>168</v>
+        <v>421</v>
       </c>
       <c r="D15">
-        <v>4.9210491999999997</v>
+        <v>2.1447451000000002</v>
       </c>
       <c r="E15">
-        <v>0.83217370000000002</v>
+        <v>0.86173929999999999</v>
       </c>
       <c r="F15">
-        <v>3.9503952</v>
+        <v>1.1540231000000001</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1">
-        <v>3.1300000000000002E-5</v>
-      </c>
-      <c r="I15">
-        <v>3.2648299999999998E-2</v>
+        <v>3.3099999999999998E-5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.1999999999999999E-6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>143</v>
+        <v>2100</v>
       </c>
       <c r="D16">
-        <v>4.9748481</v>
+        <v>36.891022700000001</v>
       </c>
       <c r="E16">
-        <v>0.58244070000000003</v>
+        <v>1.6254919999999999</v>
       </c>
       <c r="F16">
-        <v>4.1442610999999996</v>
+        <v>34.006214200000002</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1">
-        <v>2.9499999999999999E-5</v>
+        <v>6.9200000000000002E-5</v>
       </c>
       <c r="I16">
-        <v>3.5140200000000003E-2</v>
+        <v>2.70653E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>2192</v>
       </c>
       <c r="D17">
-        <v>1.9292529</v>
+        <v>64.576937000000001</v>
       </c>
       <c r="E17">
-        <v>0.42470229999999998</v>
+        <v>1.7170174</v>
       </c>
       <c r="F17">
-        <v>1.1255561000000001</v>
+        <v>61.761491499999998</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1">
-        <v>2.65E-5</v>
+        <v>9.7499999999999998E-5</v>
       </c>
       <c r="I17">
-        <v>4.2762700000000001E-2</v>
+        <v>4.8595800000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>1066</v>
+        <v>80</v>
       </c>
       <c r="C18">
-        <v>6788</v>
+        <v>2460</v>
       </c>
       <c r="D18">
-        <v>370.76362330000001</v>
+        <v>152.8382915</v>
       </c>
       <c r="E18">
-        <v>8.1288364000000009</v>
+        <v>1.3591707</v>
       </c>
       <c r="F18">
-        <v>352.76973859999998</v>
+        <v>151.31266009999999</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18">
-        <v>1.8000000000000001E-4</v>
+        <v>32</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8.1299999999999997E-5</v>
       </c>
       <c r="I18">
-        <v>7.3567400000000005E-2</v>
+        <v>4.3129000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>6788</v>
       </c>
       <c r="D19">
-        <v>1.9149981</v>
+        <v>370.76362330000001</v>
       </c>
       <c r="E19">
-        <v>0.40236110000000003</v>
+        <v>8.1288364000000009</v>
       </c>
       <c r="F19">
-        <v>0.78733520000000001</v>
+        <v>352.76973859999998</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2.4600000000000002E-5</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1.1999999999999999E-6</v>
+        <v>42</v>
+      </c>
+      <c r="H19">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="I19">
+        <v>7.3567400000000005E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -6315,31 +6312,31 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="C21">
-        <v>367</v>
+        <v>483896</v>
       </c>
       <c r="D21">
-        <v>15.6164494</v>
+        <v>171.93987279999999</v>
       </c>
       <c r="E21">
-        <v>1.7715232999999999</v>
+        <v>1.7244442</v>
       </c>
       <c r="F21">
-        <v>11.270297899999999</v>
+        <v>169.21509330000001</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3.79E-5</v>
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>9.4921999999999992E-3</v>
       </c>
       <c r="I21">
-        <v>3.02095E-2</v>
+        <v>0.56847130000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -6373,118 +6370,118 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0.38829520000000001</v>
+        <v>10.6833799</v>
       </c>
       <c r="E28">
-        <v>7.3033100000000004E-2</v>
+        <v>1.5851024</v>
       </c>
       <c r="F28">
-        <v>0.27283429999999997</v>
+        <v>5.3923961</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H28" s="1">
-        <v>2.5899999999999999E-5</v>
-      </c>
-      <c r="I28">
-        <v>1.7979700000000001E-2</v>
+        <v>2.65E-5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.7999999999999999E-6</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B29">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>2.0062351999999999</v>
+        <v>1.9149981</v>
       </c>
       <c r="E29">
-        <v>0.61482700000000001</v>
+        <v>0.40236110000000003</v>
       </c>
       <c r="F29">
-        <v>1.2019389</v>
+        <v>0.78733520000000001</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H29" s="1">
-        <v>2.8900000000000001E-5</v>
-      </c>
-      <c r="I29">
-        <v>2.2034000000000002E-2</v>
+        <v>2.4600000000000002E-5</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1.1999999999999999E-6</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>421</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>2.1447451000000002</v>
+        <v>0.38829520000000001</v>
       </c>
       <c r="E30">
-        <v>0.86173929999999999</v>
+        <v>7.3033100000000004E-2</v>
       </c>
       <c r="F30">
-        <v>1.1540231000000001</v>
+        <v>0.27283429999999997</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>3.3099999999999998E-5</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1.1999999999999999E-6</v>
+        <v>2.5899999999999999E-5</v>
+      </c>
+      <c r="I30">
+        <v>1.7979700000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>9.3714099999999991</v>
+        <v>1.9292529</v>
       </c>
       <c r="E31">
-        <v>0.2599052</v>
+        <v>0.42470229999999998</v>
       </c>
       <c r="F31">
-        <v>8.2781909000000002</v>
+        <v>1.1255561000000001</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H31" s="1">
-        <v>2.9499999999999999E-5</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1.7999999999999999E-6</v>
+        <v>2.65E-5</v>
+      </c>
+      <c r="I31">
+        <v>4.2762700000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -6518,408 +6515,408 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D33">
-        <v>3.3153115</v>
+        <v>2.0062351999999999</v>
       </c>
       <c r="E33">
-        <v>0.4719429</v>
+        <v>0.61482700000000001</v>
       </c>
       <c r="F33">
-        <v>2.3974888000000001</v>
+        <v>1.2019389</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H33" s="1">
-        <v>3.3099999999999998E-5</v>
+        <v>2.8900000000000001E-5</v>
       </c>
       <c r="I33">
-        <v>2.51258E-2</v>
+        <v>2.2034000000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D34">
-        <v>10.6833799</v>
+        <v>3.3153115</v>
       </c>
       <c r="E34">
-        <v>1.5851024</v>
+        <v>0.4719429</v>
       </c>
       <c r="F34">
-        <v>5.3923961</v>
+        <v>2.3974888000000001</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1">
-        <v>2.65E-5</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1.7999999999999999E-6</v>
+        <v>3.3099999999999998E-5</v>
+      </c>
+      <c r="I34">
+        <v>2.51258E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C35">
-        <v>2100</v>
+        <v>143</v>
       </c>
       <c r="D35">
-        <v>36.891022700000001</v>
+        <v>4.9748481</v>
       </c>
       <c r="E35">
-        <v>1.6254919999999999</v>
+        <v>0.58244070000000003</v>
       </c>
       <c r="F35">
-        <v>34.006214200000002</v>
+        <v>4.1442610999999996</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H35" s="1">
-        <v>6.9200000000000002E-5</v>
+        <v>2.9499999999999999E-5</v>
       </c>
       <c r="I35">
-        <v>2.70653E-2</v>
+        <v>3.5140200000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>2192</v>
+        <v>148</v>
       </c>
       <c r="D36">
-        <v>64.576937000000001</v>
+        <v>9.3714099999999991</v>
       </c>
       <c r="E36">
-        <v>1.7170174</v>
+        <v>0.2599052</v>
       </c>
       <c r="F36">
-        <v>61.761491499999998</v>
+        <v>8.2781909000000002</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H36" s="1">
-        <v>9.7499999999999998E-5</v>
-      </c>
-      <c r="I36">
-        <v>4.8595800000000001E-2</v>
+        <v>2.9499999999999999E-5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1.7999999999999999E-6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C37">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D37">
-        <v>7.8702369000000001</v>
+        <v>4.9210491999999997</v>
       </c>
       <c r="E37">
-        <v>0.7350797</v>
+        <v>0.83217370000000002</v>
       </c>
       <c r="F37">
-        <v>6.9855185999999998</v>
+        <v>3.9503952</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H37" s="1">
-        <v>3.01E-5</v>
+        <v>3.1300000000000002E-5</v>
       </c>
       <c r="I37">
-        <v>1.3957900000000001E-2</v>
+        <v>3.2648299999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C38">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="D38">
-        <v>13.733514599999999</v>
+        <v>7.8702369000000001</v>
       </c>
       <c r="E38">
-        <v>0.7130071</v>
+        <v>0.7350797</v>
       </c>
       <c r="F38">
-        <v>12.9443918</v>
+        <v>6.9855185999999998</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H38" s="1">
-        <v>3.8500000000000001E-5</v>
+        <v>3.01E-5</v>
       </c>
       <c r="I38">
-        <v>1.5352299999999999E-2</v>
+        <v>1.3957900000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C39">
-        <v>2460</v>
+        <v>367</v>
       </c>
       <c r="D39">
-        <v>152.8382915</v>
+        <v>15.6164494</v>
       </c>
       <c r="E39">
-        <v>1.3591707</v>
+        <v>1.7715232999999999</v>
       </c>
       <c r="F39">
-        <v>151.31266009999999</v>
+        <v>11.270297899999999</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H39" s="1">
-        <v>8.1299999999999997E-5</v>
+        <v>3.79E-5</v>
       </c>
       <c r="I39">
-        <v>4.3129000000000001E-2</v>
+        <v>3.02095E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="C40">
-        <v>483896</v>
+        <v>396</v>
       </c>
       <c r="D40">
-        <v>171.93987279999999</v>
+        <v>13.733514599999999</v>
       </c>
       <c r="E40">
-        <v>1.7244442</v>
+        <v>0.7130071</v>
       </c>
       <c r="F40">
-        <v>169.21509330000001</v>
+        <v>12.9443918</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H40">
-        <v>9.4921999999999992E-3</v>
+        <v>30</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3.8500000000000001E-5</v>
       </c>
       <c r="I40">
-        <v>0.56847130000000001</v>
+        <v>1.5352299999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C41">
-        <v>168</v>
+        <v>421</v>
       </c>
       <c r="D41">
-        <v>4.9210491999999997</v>
+        <v>2.1447451000000002</v>
       </c>
       <c r="E41">
-        <v>0.83217370000000002</v>
+        <v>0.86173929999999999</v>
       </c>
       <c r="F41">
-        <v>3.9503952</v>
+        <v>1.1540231000000001</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1">
-        <v>3.1300000000000002E-5</v>
-      </c>
-      <c r="I41">
-        <v>3.2648299999999998E-2</v>
+        <v>3.3099999999999998E-5</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.1999999999999999E-6</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B42">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C42">
-        <v>143</v>
+        <v>2100</v>
       </c>
       <c r="D42">
-        <v>4.9748481</v>
+        <v>36.891022700000001</v>
       </c>
       <c r="E42">
-        <v>0.58244070000000003</v>
+        <v>1.6254919999999999</v>
       </c>
       <c r="F42">
-        <v>4.1442610999999996</v>
+        <v>34.006214200000002</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H42" s="1">
-        <v>2.9499999999999999E-5</v>
+        <v>6.9200000000000002E-5</v>
       </c>
       <c r="I42">
-        <v>3.5140200000000003E-2</v>
+        <v>2.70653E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>2192</v>
       </c>
       <c r="D43">
-        <v>1.9292529</v>
+        <v>64.576937000000001</v>
       </c>
       <c r="E43">
-        <v>0.42470229999999998</v>
+        <v>1.7170174</v>
       </c>
       <c r="F43">
-        <v>1.1255561000000001</v>
+        <v>61.761491499999998</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H43" s="1">
-        <v>2.65E-5</v>
+        <v>9.7499999999999998E-5</v>
       </c>
       <c r="I43">
-        <v>4.2762700000000001E-2</v>
+        <v>4.8595800000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B44">
-        <v>1066</v>
+        <v>80</v>
       </c>
       <c r="C44">
-        <v>6788</v>
+        <v>2460</v>
       </c>
       <c r="D44">
-        <v>370.76362330000001</v>
+        <v>152.8382915</v>
       </c>
       <c r="E44">
-        <v>8.1288364000000009</v>
+        <v>1.3591707</v>
       </c>
       <c r="F44">
-        <v>352.76973859999998</v>
+        <v>151.31266009999999</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44">
-        <v>1.8000000000000001E-4</v>
+        <v>32</v>
+      </c>
+      <c r="H44" s="1">
+        <v>8.1299999999999997E-5</v>
       </c>
       <c r="I44">
-        <v>7.3567400000000005E-2</v>
+        <v>4.3129000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>6788</v>
       </c>
       <c r="D45">
-        <v>1.9149981</v>
+        <v>370.76362330000001</v>
       </c>
       <c r="E45">
-        <v>0.40236110000000003</v>
+        <v>8.1288364000000009</v>
       </c>
       <c r="F45">
-        <v>0.78733520000000001</v>
+        <v>352.76973859999998</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="1">
-        <v>2.4600000000000002E-5</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1.1999999999999999E-6</v>
+        <v>42</v>
+      </c>
+      <c r="H45">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="I45">
+        <v>7.3567400000000005E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B46">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="C46">
-        <v>367</v>
+        <v>483896</v>
       </c>
       <c r="D46">
-        <v>15.6164494</v>
+        <v>171.93987279999999</v>
       </c>
       <c r="E46">
-        <v>1.7715232999999999</v>
+        <v>1.7244442</v>
       </c>
       <c r="F46">
-        <v>11.270297899999999</v>
+        <v>169.21509330000001</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" s="1">
-        <v>3.79E-5</v>
+        <v>34</v>
+      </c>
+      <c r="H46">
+        <v>9.4921999999999992E-3</v>
       </c>
       <c r="I46">
-        <v>3.02095E-2</v>
+        <v>0.56847130000000001</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -6953,118 +6950,118 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.38829520000000001</v>
+        <v>10.6833799</v>
       </c>
       <c r="E52">
-        <v>7.3033100000000004E-2</v>
+        <v>1.5851024</v>
       </c>
       <c r="F52">
-        <v>0.27283429999999997</v>
+        <v>5.3923961</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H52" s="1">
-        <v>2.5899999999999999E-5</v>
-      </c>
-      <c r="I52">
-        <v>1.7979700000000001E-2</v>
+        <v>2.65E-5</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1.7999999999999999E-6</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B53">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>2.0062351999999999</v>
+        <v>1.9149981</v>
       </c>
       <c r="E53">
-        <v>0.61482700000000001</v>
+        <v>0.40236110000000003</v>
       </c>
       <c r="F53">
-        <v>1.2019389</v>
+        <v>0.78733520000000001</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H53" s="1">
-        <v>2.8900000000000001E-5</v>
-      </c>
-      <c r="I53">
-        <v>2.2034000000000002E-2</v>
+        <v>2.4600000000000002E-5</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1.1999999999999999E-6</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>421</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>2.1447451000000002</v>
+        <v>0.38829520000000001</v>
       </c>
       <c r="E54">
-        <v>0.86173929999999999</v>
+        <v>7.3033100000000004E-2</v>
       </c>
       <c r="F54">
-        <v>1.1540231000000001</v>
+        <v>0.27283429999999997</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H54" s="1">
-        <v>3.3099999999999998E-5</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1.1999999999999999E-6</v>
+        <v>2.5899999999999999E-5</v>
+      </c>
+      <c r="I54">
+        <v>1.7979700000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B55">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C55">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>9.3714099999999991</v>
+        <v>1.9292529</v>
       </c>
       <c r="E55">
-        <v>0.2599052</v>
+        <v>0.42470229999999998</v>
       </c>
       <c r="F55">
-        <v>8.2781909000000002</v>
+        <v>1.1255561000000001</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H55" s="1">
-        <v>2.9499999999999999E-5</v>
-      </c>
-      <c r="I55" s="1">
-        <v>1.7999999999999999E-6</v>
+        <v>2.65E-5</v>
+      </c>
+      <c r="I55">
+        <v>4.2762700000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -7098,379 +7095,379 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D57">
-        <v>3.3153115</v>
+        <v>2.0062351999999999</v>
       </c>
       <c r="E57">
-        <v>0.4719429</v>
+        <v>0.61482700000000001</v>
       </c>
       <c r="F57">
-        <v>2.3974888000000001</v>
+        <v>1.2019389</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1">
-        <v>3.3099999999999998E-5</v>
+        <v>2.8900000000000001E-5</v>
       </c>
       <c r="I57">
-        <v>2.51258E-2</v>
+        <v>2.2034000000000002E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D58">
-        <v>10.6833799</v>
+        <v>3.3153115</v>
       </c>
       <c r="E58">
-        <v>1.5851024</v>
+        <v>0.4719429</v>
       </c>
       <c r="F58">
-        <v>5.3923961</v>
+        <v>2.3974888000000001</v>
       </c>
       <c r="G58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1">
-        <v>2.65E-5</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1.7999999999999999E-6</v>
+        <v>3.3099999999999998E-5</v>
+      </c>
+      <c r="I58">
+        <v>2.51258E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B59">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>2100</v>
+        <v>143</v>
       </c>
       <c r="D59">
-        <v>36.891022700000001</v>
+        <v>4.9748481</v>
       </c>
       <c r="E59">
-        <v>1.6254919999999999</v>
+        <v>0.58244070000000003</v>
       </c>
       <c r="F59">
-        <v>34.006214200000002</v>
+        <v>4.1442610999999996</v>
       </c>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H59" s="1">
-        <v>6.9200000000000002E-5</v>
+        <v>2.9499999999999999E-5</v>
       </c>
       <c r="I59">
-        <v>2.70653E-2</v>
+        <v>3.5140200000000003E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>2192</v>
+        <v>148</v>
       </c>
       <c r="D60">
-        <v>64.576937000000001</v>
+        <v>9.3714099999999991</v>
       </c>
       <c r="E60">
-        <v>1.7170174</v>
+        <v>0.2599052</v>
       </c>
       <c r="F60">
-        <v>61.761491499999998</v>
+        <v>8.2781909000000002</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H60" s="1">
-        <v>9.7499999999999998E-5</v>
-      </c>
-      <c r="I60">
-        <v>4.8595800000000001E-2</v>
+        <v>2.9499999999999999E-5</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1.7999999999999999E-6</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B61">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C61">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D61">
-        <v>7.8702369000000001</v>
+        <v>4.9210491999999997</v>
       </c>
       <c r="E61">
-        <v>0.7350797</v>
+        <v>0.83217370000000002</v>
       </c>
       <c r="F61">
-        <v>6.9855185999999998</v>
+        <v>3.9503952</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H61" s="1">
-        <v>3.01E-5</v>
+        <v>3.1300000000000002E-5</v>
       </c>
       <c r="I61">
-        <v>1.3957900000000001E-2</v>
+        <v>3.2648299999999998E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C62">
-        <v>396</v>
+        <v>175</v>
       </c>
       <c r="D62">
-        <v>13.733514599999999</v>
+        <v>7.8702369000000001</v>
       </c>
       <c r="E62">
-        <v>0.7130071</v>
+        <v>0.7350797</v>
       </c>
       <c r="F62">
-        <v>12.9443918</v>
+        <v>6.9855185999999998</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H62" s="1">
-        <v>3.8500000000000001E-5</v>
+        <v>3.01E-5</v>
       </c>
       <c r="I62">
-        <v>1.5352299999999999E-2</v>
+        <v>1.3957900000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B63">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C63">
-        <v>2460</v>
+        <v>367</v>
       </c>
       <c r="D63">
-        <v>152.8382915</v>
+        <v>15.6164494</v>
       </c>
       <c r="E63">
-        <v>1.3591707</v>
+        <v>1.7715232999999999</v>
       </c>
       <c r="F63">
-        <v>151.31266009999999</v>
+        <v>11.270297899999999</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H63" s="1">
-        <v>8.1299999999999997E-5</v>
+        <v>3.79E-5</v>
       </c>
       <c r="I63">
-        <v>4.3129000000000001E-2</v>
+        <v>3.02095E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B64">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="C64">
-        <v>483896</v>
+        <v>396</v>
       </c>
       <c r="D64">
-        <v>171.93987279999999</v>
+        <v>13.733514599999999</v>
       </c>
       <c r="E64">
-        <v>1.7244442</v>
+        <v>0.7130071</v>
       </c>
       <c r="F64">
-        <v>169.21509330000001</v>
+        <v>12.9443918</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64">
-        <v>9.4921999999999992E-3</v>
+        <v>30</v>
+      </c>
+      <c r="H64" s="1">
+        <v>3.8500000000000001E-5</v>
       </c>
       <c r="I64">
-        <v>0.56847130000000001</v>
+        <v>1.5352299999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C65">
-        <v>168</v>
+        <v>421</v>
       </c>
       <c r="D65">
-        <v>4.9210491999999997</v>
+        <v>2.1447451000000002</v>
       </c>
       <c r="E65">
-        <v>0.83217370000000002</v>
+        <v>0.86173929999999999</v>
       </c>
       <c r="F65">
-        <v>3.9503952</v>
+        <v>1.1540231000000001</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H65" s="1">
-        <v>3.1300000000000002E-5</v>
-      </c>
-      <c r="I65">
-        <v>3.2648299999999998E-2</v>
+        <v>3.3099999999999998E-5</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1.1999999999999999E-6</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B66">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C66">
-        <v>143</v>
+        <v>2100</v>
       </c>
       <c r="D66">
-        <v>4.9748481</v>
+        <v>36.891022700000001</v>
       </c>
       <c r="E66">
-        <v>0.58244070000000003</v>
+        <v>1.6254919999999999</v>
       </c>
       <c r="F66">
-        <v>4.1442610999999996</v>
+        <v>34.006214200000002</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H66" s="1">
-        <v>2.9499999999999999E-5</v>
+        <v>6.9200000000000002E-5</v>
       </c>
       <c r="I66">
-        <v>3.5140200000000003E-2</v>
+        <v>2.70653E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C67">
-        <v>38</v>
+        <v>2192</v>
       </c>
       <c r="D67">
-        <v>1.9292529</v>
+        <v>64.576937000000001</v>
       </c>
       <c r="E67">
-        <v>0.42470229999999998</v>
+        <v>1.7170174</v>
       </c>
       <c r="F67">
-        <v>1.1255561000000001</v>
+        <v>61.761491499999998</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H67" s="1">
-        <v>2.65E-5</v>
+        <v>9.7499999999999998E-5</v>
       </c>
       <c r="I67">
-        <v>4.2762700000000001E-2</v>
+        <v>4.8595800000000001E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>2460</v>
       </c>
       <c r="D68">
-        <v>1.9149981</v>
+        <v>152.8382915</v>
       </c>
       <c r="E68">
-        <v>0.40236110000000003</v>
+        <v>1.3591707</v>
       </c>
       <c r="F68">
-        <v>0.78733520000000001</v>
+        <v>151.31266009999999</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H68" s="1">
-        <v>2.4600000000000002E-5</v>
-      </c>
-      <c r="I68" s="1">
-        <v>1.1999999999999999E-6</v>
+        <v>8.1299999999999997E-5</v>
+      </c>
+      <c r="I68">
+        <v>4.3129000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B69">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="C69">
-        <v>367</v>
+        <v>483896</v>
       </c>
       <c r="D69">
-        <v>15.6164494</v>
+        <v>171.93987279999999</v>
       </c>
       <c r="E69">
-        <v>1.7715232999999999</v>
+        <v>1.7244442</v>
       </c>
       <c r="F69">
-        <v>11.270297899999999</v>
+        <v>169.21509330000001</v>
       </c>
       <c r="G69" t="s">
-        <v>48</v>
-      </c>
-      <c r="H69" s="1">
-        <v>3.79E-5</v>
+        <v>34</v>
+      </c>
+      <c r="H69">
+        <v>9.4921999999999992E-3</v>
       </c>
       <c r="I69">
-        <v>3.02095E-2</v>
+        <v>0.56847130000000001</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -7504,118 +7501,118 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0.38829520000000001</v>
+        <v>10.6833799</v>
       </c>
       <c r="E75">
-        <v>7.3033100000000004E-2</v>
+        <v>1.5851024</v>
       </c>
       <c r="F75">
-        <v>0.27283429999999997</v>
+        <v>5.3923961</v>
       </c>
       <c r="G75" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H75" s="1">
-        <v>2.5899999999999999E-5</v>
-      </c>
-      <c r="I75">
-        <v>1.7979700000000001E-2</v>
+        <v>2.65E-5</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1.7999999999999999E-6</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B76">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>2.0062351999999999</v>
+        <v>1.9149981</v>
       </c>
       <c r="E76">
-        <v>0.61482700000000001</v>
+        <v>0.40236110000000003</v>
       </c>
       <c r="F76">
-        <v>1.2019389</v>
+        <v>0.78733520000000001</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H76" s="1">
-        <v>2.8900000000000001E-5</v>
-      </c>
-      <c r="I76">
-        <v>2.2034000000000002E-2</v>
+        <v>2.4600000000000002E-5</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1.1999999999999999E-6</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B77">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>421</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>2.1447451000000002</v>
+        <v>0.38829520000000001</v>
       </c>
       <c r="E77">
-        <v>0.86173929999999999</v>
+        <v>7.3033100000000004E-2</v>
       </c>
       <c r="F77">
-        <v>1.1540231000000001</v>
+        <v>0.27283429999999997</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H77" s="1">
-        <v>3.3099999999999998E-5</v>
-      </c>
-      <c r="I77" s="1">
-        <v>1.1999999999999999E-6</v>
+        <v>2.5899999999999999E-5</v>
+      </c>
+      <c r="I77">
+        <v>1.7979700000000001E-2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B78">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C78">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D78">
-        <v>9.3714099999999991</v>
+        <v>1.9292529</v>
       </c>
       <c r="E78">
-        <v>0.2599052</v>
+        <v>0.42470229999999998</v>
       </c>
       <c r="F78">
-        <v>8.2781909000000002</v>
+        <v>1.1255561000000001</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H78" s="1">
-        <v>2.9499999999999999E-5</v>
-      </c>
-      <c r="I78" s="1">
-        <v>1.7999999999999999E-6</v>
+        <v>2.65E-5</v>
+      </c>
+      <c r="I78">
+        <v>4.2762700000000001E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -7649,118 +7646,118 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B80">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C80">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="D80">
-        <v>3.3153115</v>
+        <v>2.0062351999999999</v>
       </c>
       <c r="E80">
-        <v>0.4719429</v>
+        <v>0.61482700000000001</v>
       </c>
       <c r="F80">
-        <v>2.3974888000000001</v>
+        <v>1.2019389</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H80" s="1">
-        <v>3.3099999999999998E-5</v>
+        <v>2.8900000000000001E-5</v>
       </c>
       <c r="I80">
-        <v>2.51258E-2</v>
+        <v>2.2034000000000002E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D81">
-        <v>10.6833799</v>
+        <v>3.3153115</v>
       </c>
       <c r="E81">
-        <v>1.5851024</v>
+        <v>0.4719429</v>
       </c>
       <c r="F81">
-        <v>5.3923961</v>
+        <v>2.3974888000000001</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H81" s="1">
-        <v>2.65E-5</v>
-      </c>
-      <c r="I81" s="1">
-        <v>1.7999999999999999E-6</v>
+        <v>3.3099999999999998E-5</v>
+      </c>
+      <c r="I81">
+        <v>2.51258E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B82">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C82">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D82">
-        <v>7.8702369000000001</v>
+        <v>4.9748481</v>
       </c>
       <c r="E82">
-        <v>0.7350797</v>
+        <v>0.58244070000000003</v>
       </c>
       <c r="F82">
-        <v>6.9855185999999998</v>
+        <v>4.1442610999999996</v>
       </c>
       <c r="G82" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H82" s="1">
-        <v>3.01E-5</v>
+        <v>2.9499999999999999E-5</v>
       </c>
       <c r="I82">
-        <v>1.3957900000000001E-2</v>
+        <v>3.5140200000000003E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B83">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C83">
-        <v>396</v>
+        <v>148</v>
       </c>
       <c r="D83">
-        <v>13.733514599999999</v>
+        <v>9.3714099999999991</v>
       </c>
       <c r="E83">
-        <v>0.7130071</v>
+        <v>0.2599052</v>
       </c>
       <c r="F83">
-        <v>12.9443918</v>
+        <v>8.2781909000000002</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H83" s="1">
-        <v>3.8500000000000001E-5</v>
-      </c>
-      <c r="I83">
-        <v>1.5352299999999999E-2</v>
+        <v>2.9499999999999999E-5</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1.7999999999999999E-6</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -7794,121 +7791,124 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B85">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C85">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D85">
-        <v>4.9748481</v>
+        <v>7.8702369000000001</v>
       </c>
       <c r="E85">
-        <v>0.58244070000000003</v>
+        <v>0.7350797</v>
       </c>
       <c r="F85">
-        <v>4.1442610999999996</v>
+        <v>6.9855185999999998</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H85" s="1">
-        <v>2.9499999999999999E-5</v>
+        <v>3.01E-5</v>
       </c>
       <c r="I85">
-        <v>3.5140200000000003E-2</v>
+        <v>1.3957900000000001E-2</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B86">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C86">
-        <v>38</v>
+        <v>367</v>
       </c>
       <c r="D86">
-        <v>1.9292529</v>
+        <v>15.6164494</v>
       </c>
       <c r="E86">
-        <v>0.42470229999999998</v>
+        <v>1.7715232999999999</v>
       </c>
       <c r="F86">
-        <v>1.1255561000000001</v>
+        <v>11.270297899999999</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H86" s="1">
-        <v>2.65E-5</v>
+        <v>3.79E-5</v>
       </c>
       <c r="I86">
-        <v>4.2762700000000001E-2</v>
+        <v>3.02095E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="D87">
-        <v>1.9149981</v>
+        <v>13.733514599999999</v>
       </c>
       <c r="E87">
-        <v>0.40236110000000003</v>
+        <v>0.7130071</v>
       </c>
       <c r="F87">
-        <v>0.78733520000000001</v>
+        <v>12.9443918</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H87" s="1">
-        <v>2.4600000000000002E-5</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1.1999999999999999E-6</v>
+        <v>3.8500000000000001E-5</v>
+      </c>
+      <c r="I87">
+        <v>1.5352299999999999E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B88">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C88">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="D88">
-        <v>15.6164494</v>
+        <v>2.1447451000000002</v>
       </c>
       <c r="E88">
-        <v>1.7715232999999999</v>
+        <v>0.86173929999999999</v>
       </c>
       <c r="F88">
-        <v>11.270297899999999</v>
+        <v>1.1540231000000001</v>
       </c>
       <c r="G88" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H88" s="1">
-        <v>3.79E-5</v>
-      </c>
-      <c r="I88">
-        <v>3.02095E-2</v>
+        <v>3.3099999999999998E-5</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1.1999999999999999E-6</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A75:I88">
+    <sortCondition ref="C75:C88"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
